--- a/results.xlsx
+++ b/results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100584423\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Documents\github\Galton-Board-Sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Runtime (ms)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Number of Balls</t>
+  </si>
+  <si>
+    <t>1 ms</t>
+  </si>
+  <si>
+    <t>Average runtime</t>
+  </si>
+  <si>
+    <t>3 ms</t>
+  </si>
+  <si>
+    <t>37 ms</t>
+  </si>
+  <si>
+    <t>378 ms</t>
+  </si>
+  <si>
+    <t>3.821 s</t>
+  </si>
+  <si>
+    <t>39.302 s</t>
+  </si>
+  <si>
+    <t>6.5728 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,16 +65,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -61,21 +103,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -356,7 +429,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,59 +438,72 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>10000</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>100000</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1000000</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>10000000</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>100000000</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>1000000000</v>
       </c>
-      <c r="B8" s="1">
-        <v>595256</v>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>